--- a/biology/Botanique/Caulerpa_lentillifera/Caulerpa_lentillifera.xlsx
+++ b/biology/Botanique/Caulerpa_lentillifera/Caulerpa_lentillifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caulerpa lentillifera est une espèce d'algues vertes de la famille des Caulerpaceae, en forme de grappe de raisin miniature.
 Cette algue est l'une des algues utilisées dans la cuisine d'Okinawa (cuisine japonaise) sous le nom d’umibudō (海ぶどう?, littéralement « raisins de la mer »).
